--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/67_Samsun_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/67_Samsun_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E24444-49C0-46BC-8744-5F81EA45EC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{589CBC98-8EBA-4285-9B49-AA59B01D380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{6D7878C7-DE02-4CAE-A809-6F966C5981AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{E46B8C5C-4F45-408A-94FF-5BB4ECDDEF51}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -972,14 +972,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F7F47DA3-B2B6-4C19-BDDA-7B87F02EAAE5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{44EBAC3E-2B68-4250-A219-F7AE413F46BE}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{5390779E-FD0D-4358-B638-D65D86E98070}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{C07B54A0-DC7C-45E8-BB57-C51A9D7F2998}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{45780232-EE2F-421E-9ADA-9912A8AD5ED6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CB096C09-16C8-4C66-AAFF-D853500D0DB2}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{2A7ABF43-C27E-4D15-9DFB-53725B58254A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{36293720-E335-4213-B104-FCEDADFC5369}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D86FE478-B11E-4629-A149-ECF7D161ACC2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D1AF7F85-DCA7-45F7-8BEC-31D13408A9AF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{DA68DA54-8E44-4F1D-8BE8-FCBEFC04D18E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E9A96058-8E97-46BF-BF5A-E1D6CBB68F1F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{8D35BAC9-9256-4BC2-A78B-D5A58F012169}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C3FC7F90-E37B-4075-979C-10B80F2BEFF5}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{5B6E1FC3-1E6E-400D-93CF-B9849BB37062}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2590D178-7A84-4FFE-9C11-E412F04088FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6448FCB-8C42-4AFA-A82A-E2612801AF89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625FC7D7-5E7C-47D4-AAFF-A2A5D5B6F37A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2644,18 +2644,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21B15B43-B246-4970-AE54-6D3BDAB1B091}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2A09061-C2DB-4D87-AC0D-A9B895FA52E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34D7A60C-95C6-4EC0-A7A3-D12CA18D18A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0605D02-8F8A-4374-8461-1EEB41B9D874}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9C86F15-14F0-46AE-9BAD-000015B64708}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{61750CBD-4216-446E-B1B5-61763DA57F05}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDA0ADD4-2549-4D5D-94B0-2620B6BCF35F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53D1944C-C78C-4276-B2DA-479C5F14DDBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3426AC6-365C-4466-A199-AC286422CCBB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1628C1C5-E600-492A-B084-91057C8CA156}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB671CF6-C083-47C9-BB35-7593A47EC802}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46E21A12-1D77-4690-BDDB-C68B108472C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13655342-D62F-484C-8706-F4266348EE71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F9CD331-2E1E-4119-9EDC-B19CF69DC292}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9B761E7-EB5C-4177-8089-11E714D8F97E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC34189B-B106-44A8-A05B-A518A4F323D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32ADAE5A-4846-49D3-92E0-973F302C396D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C743C66D-909C-46C5-A9EA-8C8A7763A161}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E7B72C1-004D-4181-9271-69B74C4C3399}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BAC3D8F-4D1A-49CD-9281-DD7B78515E2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1708D42C-2E1A-461E-B198-7CEC8E4932B7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FC995517-3B99-4910-8E94-4DB983D3BB1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6A140E9-197F-4593-A264-389DE7DDB310}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B8D1D1B-31A2-4463-9706-B3B5839CAC6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2668,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8FC0CB-4F86-48F4-BF7B-141BF7D1FF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D3D9A-F12D-42FA-8DF9-B0FDE2811216}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3944,18 +3944,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A8CBC85-1C9E-4AE5-B72A-2983DF63F9C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B541CD4-43D3-4FB1-BF0A-B5BF828D719A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9221B146-81E7-470D-A56A-8BB51FFA5DE9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA10F408-EA97-4EFB-BE0F-4D23A4D3A955}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FC1A948-A9F0-415D-A3D1-2B720F6E9FEA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1BC6EE21-D034-4DD8-8BF4-420166DC47D0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A08BEEBE-8095-47B2-8E8A-E63DB3E791D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E965137A-3335-453C-AED5-ED67F0058AF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3ED9272-83F2-4B86-A5F3-C7630809957C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{83F24146-AE9A-4D4C-B382-AD2EBFF3692B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7CAA68C-5C64-44BB-8D67-6A97E85CAB3F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68A38FDD-F720-4397-9BED-02F9085F7A50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4E7AFDC-A64E-4642-96A6-E6BCB476F5A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58EE2593-F7C1-4A6C-882B-1A70C83F363E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FC939EB5-4E15-4673-90AB-42DB7B66DADB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93DC8427-C056-419B-AB7E-645B40CD5E49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD89C4C0-C61A-4F34-B1AF-8E7733C577A5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F684F2DB-1F6A-49B9-A3BA-006AA19BF408}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DA59A1F-8078-4834-BECB-C83A71F963F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{367D5BB9-BDE6-48A0-A49A-87EAA57F279B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C385C7FD-5124-4BB0-98F1-A24E1AF386F7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{05FC6FDD-16D7-43BD-92AE-40EBC1E96478}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{449DDCE9-3027-4F65-A1CE-AC34FC740954}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC4EE4C0-5883-4794-BA37-46997B3E9755}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3968,7 +3968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B5E22E-39E4-41BB-A3E0-4437E31F0C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D53C2-F930-4A7B-8703-9E9155C35B48}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5244,18 +5244,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82F79226-2320-4487-875D-FB674ED60CB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1AD8D3D-7475-45B5-BF0C-3695640C0413}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B190AD20-AC4A-41B2-8392-803E5C674AD7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BACF669-B7B9-470E-8457-2AC8F290C3DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71AA8042-8752-411D-9755-2CC8B90386C3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{937B7547-2D5A-443F-B38E-A81F40E19ACE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3172081A-DC53-43FC-A722-AB86181526C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5190FA50-5FE3-48FA-8972-491237EE788D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD1FA2A6-448C-4C3B-9A60-6CB3BE41FA56}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A6EBC8FA-54FC-4428-A7CC-E8A440F436B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92014DFD-AFC9-471B-AF4D-0EB43F52ABE9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AF89F9E-40E6-47E6-B162-15D798CCD492}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D785245-8866-4168-ADC0-BE2A8200D165}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D208A170-1ADC-4A4B-94C8-DDD5CD4B12D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8745F351-7256-42AD-AE4F-63D7EE822428}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6D8EA81-62CD-48CC-9CF7-AC6580DBDE67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FCB2081D-80CF-433A-8866-E80B209CE767}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4B6C3F6B-9A27-404F-ACF6-D2BED72F50C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49969A19-009D-4525-90C8-3BAC8CBA432A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{773FD42E-56B4-4D4D-B50A-E696F2B2E1F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAAE9EB3-C56D-412D-9636-7FCA83339AC3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{89452BC8-E34D-4E19-AF35-BDD23B80E6E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5FB96B3-F727-4C8E-855C-4AC04FC7126C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1396DCB-D7E6-463B-9DBE-1E13BAF78904}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5268,7 +5268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C171926C-7A28-4703-BF6A-6CF0524E4A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5841136F-B13F-4167-A86F-A327E9A6E9DC}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6540,18 +6540,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03DDF683-85EC-4BC9-A721-0F8661A56876}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6C6F09F-1F63-4458-80B2-494C3885D25B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B8EF200-3C3F-4E47-9AC0-FE5E33A83412}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBE0BDE9-A3DB-4FE1-B00F-3FD6F06FF2C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBCE2B47-C387-4463-B703-A7B1A4E7BC9A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E28798EE-8834-423D-BD93-41D4E1F1AB31}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC7650E4-CB77-4A0E-BA0B-A9DDEB4657EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90A4AFDD-75F7-45CE-BD0F-D4FC97B4AB98}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{598BFAB2-CB4B-4767-A4A1-0E4AB150EF42}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{26068C70-A447-4931-B0BC-C97ABC18905A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17BCBDA4-5D4A-4017-B5B1-9B7388FAACF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{924C048F-F8EC-4081-A2ED-791130B7946B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E863376-FBF2-4658-B0ED-36D14210F55A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95F108CF-C6BA-4F20-B7F9-CB4C50EA369F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{501E9727-C39B-4DCD-B132-A49A6A1D8B09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AD9A1E9-8686-4899-96FD-E57A098B7C28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7B424C9-1C5B-4948-A437-CCEC10928790}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C9F71B57-3A9F-4BE4-AB5E-6CD3DA4264BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8673CA6A-F98E-4A23-8506-6FB4E43BE720}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88153FED-A791-42D7-AED9-7EC0099590A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0DAAFB99-E88D-44B3-84AB-F1C02CC19AC5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D283584A-F4A7-4A80-BE60-F97D4F7B69AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F82AAA41-619F-4F08-8543-FDBCBDD2B466}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D6D3AA1-4CBA-48C1-9BB9-E5952CDEF187}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6564,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD5EF86-4340-47F2-A275-7E334B9B27E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE81D92-3B1E-43A5-BC73-9B1ED811806A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7861,18 +7861,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{028BE3BE-17F5-421E-B70E-3D4856DA0263}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46520013-E021-4231-9C10-22D2F3D617A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3EF2EEC7-DB86-467D-A03E-41E698F01B2B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8AB68C2-735D-4F35-A849-729AFDDB28FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42674C8E-2048-4B7C-A515-F120F15FDC0E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FC75321C-EC05-4D04-BD46-B1C383AB652B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D9BF362-7170-4894-B1FC-1A7776EA074F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C3A5B53-E2AE-451A-B55C-8C247626BE86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCC65A04-7229-4D2E-A463-25F9E0BD48D4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{41F84C8B-F419-4E04-87C3-67CF6C085519}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21BDCE2F-B8D8-46CC-BE99-FBA693FCBD6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1BFC451-F81B-46AA-BE54-29393C953ACC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B8C26D0-A408-4159-9D73-FBA0ACEA91BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21C3D379-5C0A-45AC-898B-FA566C74D337}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B690A457-84E2-48B5-A9DD-FB94EF46A613}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{252EFD19-7B73-4BD6-88A1-36AC2E8724C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56283D95-2794-4435-AB8E-8E07B00753BC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BB1C334-7321-474F-B451-29C8C1AD6981}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67950755-1EAB-4BAF-A49C-C160CE8DC497}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEEC5C4D-5A61-4084-B1E6-F71FD4A47EA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{39674B4A-3E12-4298-B752-B64D35345E3C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7DE2F936-294D-47AB-93AF-E812602D35C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94A89229-394D-4196-B0BA-D7248E1A3A94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15089AED-6092-40AF-A5F8-65773012AB88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7885,7 +7885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB37C713-1BF2-4C5E-9753-1689DC5298E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99170F-135F-4944-A318-BDAF36AE6C7F}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9183,18 +9183,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C54ABCDA-FE36-491D-AA48-01DB1D5A4726}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9F43960-4235-431B-8E88-37563C074123}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6ACD8708-EF80-494A-8DE9-056390878F0C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B49B800D-6ECC-40D9-BA11-A82EA9B0880B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F72FE5A-753F-4824-BD38-A3D48CA3571B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9D14BF0-C8CF-498F-AB6F-535C51CD0D10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D66A76F-80D1-4312-8BD9-9436CBFC1F36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F02025B-1ED7-4E8D-8007-5D48DAD184AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DAD54B73-9020-4457-9206-F579B9C200C6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{37472AC8-1FDF-4576-8BDE-4AC5DC075143}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9202132F-7C09-4E88-BA73-791E3D5E85C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C330942-DEDD-4E46-B718-2A62A7149695}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF4C8E73-17EC-457A-8C6F-E34B3C74AD40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E16353CB-348C-47F4-BAF5-36C47FEB3EAD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA8911AE-0BC1-416A-B432-ED77BE89D477}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A24242F4-B6C8-4BCB-A5B5-F8264E203C28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71E72999-B23B-46A3-B440-8ED08C441DED}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B6F2E7D-A610-4692-B185-AC54860A79BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88ED12BA-ABCF-41D7-A972-3BD35B1FB9D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E0227F6-DC35-4A67-8CAE-7442D64488CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FB796D3-E7D3-43D3-8734-782280CD5256}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{499A3AD5-C5F6-4549-882F-7F55FAFC8198}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CD99299-5E38-4AE5-BF19-9F09C6A6BA26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{325951D0-8EE3-41D0-AB0F-97A235AC5A4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9207,7 +9207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068FF603-8607-4AA9-805F-C38170D1446B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9240FAB-AB95-45E6-9212-EE107ADE97EE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10501,18 +10501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19BF2F3F-3D30-4105-9577-97F08A787F4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E70FB50F-AE87-4574-A615-DF42355FC095}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E4D66F8D-3007-4C34-A2D9-79FCBCE68338}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53B25141-5C8C-404D-82CF-7866510BBEBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{467B0FA0-C674-4150-BCFE-92D32F0524CA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{091726BB-3DA9-4BD7-9D9F-0FE2499C4FD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{139ED6DC-F21E-4316-92BE-591DC6D5EBF6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32185A68-231C-4EB5-95BA-4B5D84C2F243}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BC9F306-8782-4240-B752-BC700ECE1F2C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B1F8D5F9-3BE5-43C0-8D4D-61281E5F523E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{649F04EC-7FA1-465F-9B6E-431B8E845EA3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76E0CBEF-F180-402D-9245-DB2A14A8CBBF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{414105E4-53A6-42BB-B4F2-126F56F94B96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55C9472B-93E9-4CFA-AA50-8D2B52F4BCA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3FAA9CA-1975-42A3-9667-D66A8298A6AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9DE70B89-4382-478C-96BF-B5F6587B1D5F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04E70D56-BC19-44CC-A612-298396B8F1A9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9601B8A-E42A-4C01-BEF9-C1C18814318B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1DEDBE8-5F06-4324-AD0D-9B212341DCEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E92F416-8E53-41C0-8337-FD7B2720CDE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4974325F-27AD-4E28-9483-65BD041C21D4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CF1C937C-18EC-41A9-ACA0-BFAEEF41D983}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BCB167E-66C9-4296-A715-FD36A88372D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9653F09-FF29-45EC-BC4F-436502B8E0C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10525,7 +10525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF23CB6D-E8EA-47C7-9B13-B7038DE1014A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE9AB3C-698C-452C-87A3-36C7A46104F4}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11819,18 +11819,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11D48294-35F7-4FFA-A175-D3E6AA514C34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02A3673E-38BD-462E-A3B5-A917D8F5174D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63E20E8C-E27C-4118-9EC7-D8DB8B00337E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55F6480F-0749-4F02-94CD-A0AAE0C9B73E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6664AAA5-E610-42E0-A574-9C6EC44F08FF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{178AB896-1EDC-4C91-A5E8-015EFF91B78E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0FA7DCB0-BE2C-409E-99E6-24523D240AC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC7E686E-6D69-43EC-B57E-E3FA734CB693}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E7BDB1E-0948-43C2-8EA9-9A85BD91B58D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{928EFD39-B88F-4EFB-A25B-2E28C8E0D429}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE4971FE-D879-4E0D-8560-8FC2859972B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BE4064C-B449-4C99-AE42-742400028DCA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6AF7494-EF92-4161-8643-80D25A824B8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E592474-BE43-456A-A4E4-DC320CC7D6B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F573F8EA-B456-4CE1-900A-2D65A85F76F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA7014C6-FFE2-49F7-81CF-E4DB0C6C0C8B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7C82197-44AA-4775-B1E8-FC2B5F3F4C1A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{742120A3-E970-4797-A28A-0796A5988D6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1104B159-C553-49C5-839F-67579D430837}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{214F00F4-4A97-47F4-B08C-04C9306F0845}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EC770C7-C374-4C55-A58F-807EA0F1518A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4A96BA3C-0E57-4C55-9F96-D96EF37ED45D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24146040-6307-4903-BC67-D480ECFE02CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17376148-536D-4E95-8946-91B44D3FA3CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11843,7 +11843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B04C03-F663-48F6-B6A6-473A10FD9AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E4673-6734-463D-B447-97B9D92B74A3}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13125,18 +13125,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5BE9DB7-5EC0-47D8-87AC-5DB18A1B45F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5902EED-5052-42CF-A65B-0051377FE6C7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BEE9C3F-CBD4-47AB-A199-FC454D75F825}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79EDE323-41E5-41D3-846A-CFF114594F20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDF5E840-E879-4092-8D49-A53D5DAA81AA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{48BBA97B-C390-4AEF-9CBA-D6DE973104E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{158CB40B-BA7E-4227-8BDC-A815907EB3A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EF8C82B-5399-4F72-8428-75664DA4276B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C760B84E-D657-47B8-9F59-8ACF7CDBD40C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{92AF5A51-F128-4B99-B23F-4CE6CB9340F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1B6A177-03EF-4952-83C0-C82E217402FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D11422E1-98AE-4FA1-8B76-1B2CD8957B19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{993D6FE3-6F09-47FC-9C2D-C981EC8E1208}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFABB310-B2B2-4CBA-AB4E-BB17A3C2FED6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1484B71-C6DD-499A-9F51-1804B373B7B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CF099E2-6EED-4C23-864D-EB513A754C5A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED6E8DDF-ADA9-462C-A823-5DFE2BAEB2E7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B5B77FF4-9EC9-41CA-B1DE-66A30C315B02}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9B91BE4-7415-47D5-B2FE-34C12E795E74}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C2FCF5D-3264-4557-BDD2-0AFE4FD9C26F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93202AD1-C268-4FC7-A44B-E079E4661363}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{40466C20-811D-4FB6-9786-1E2959DA860A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9454349B-5708-46EF-903E-D231CADBE22F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F462053-CD28-4663-96C1-B390491E2688}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13149,7 +13149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0230C17-37A8-449E-974E-C4327CB217C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46305D0-01B1-4BCE-BBFD-7AE4F53A5620}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14425,18 +14425,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73376BE0-5D14-409F-B11F-45A6734C3F1B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E5FFCB9-0C8A-4CC2-978D-E4E1641FF173}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1EC99A45-BC46-4E96-B319-9A46B925DEFB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{665B7663-D0FD-4B24-92D4-D6DC5817F3B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8172C8A-9D77-47C4-A419-E6C3CE55C501}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17B97D3E-B5D3-4887-A013-852A27EAC391}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{174D0F6E-00CA-4678-AC4B-BFEE3BB6CBD3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E3AEB5A-18B3-4298-9A93-BB04E8F5EB6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5617244-DE37-4BB9-8619-26BB7251B3E8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9E80446B-DAB7-4CD3-B4B9-DA229B5B03AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AD2BF25-AA06-4B1A-B698-F6F68B6342E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AB216F7-F9E6-4EC7-A293-3D1D10E8BBF9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8624575-3980-4F3E-B93D-4956D7E42A25}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC7A54F9-8AFD-44C5-AB9C-5E30B442B487}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D072C4F-83AF-4102-AEC6-8A08D0EAFF91}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6123F449-48CE-40D1-83C0-D125809C883C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF6EB68E-277D-4E44-B2AF-FBCC5DC345FE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C3E7FD4-C110-47F2-B09C-03106D05DB75}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC57D118-6A32-4877-8700-9625042E9451}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32DB5797-055F-41DB-86E1-617C502D20B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E2F8814-8E33-420B-96C1-9703C1EE6F6F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B82D5A50-F6DA-4207-B3B5-52FD005B7576}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66BB2A9E-0306-4F7A-B540-2AF4F8C183F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAC69974-3259-4AC0-B4B8-D4FC97DA44BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14449,7 +14449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010A275A-4AE3-46D8-8D77-FEC5C45E21C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45EDD58-2ACB-4E31-AE6D-55C8EC0E68CE}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15725,18 +15725,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A0C74B8-313F-4927-A61F-C1A811784B48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15F4F5B8-72BC-475A-9604-9CC7F82622CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C147CF7-5B33-4AB4-976A-69A031D506B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{86091C62-17C7-41DC-9A6A-CC4A2AF327B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4653CF97-F557-4E10-B0FB-2AFD4EF22553}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D2B83E1-A62A-49E4-8673-2EE36A4E502E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{728B048C-A902-4842-9375-FFEDA5460E60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{743AF337-39DB-423F-B535-AC63E1F065E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C99E1A4-C5D2-4882-91E3-38AF592C5055}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2685F6C8-FE39-442D-A41E-4119A6884229}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFE48538-7C9E-4B74-822A-DBA64FD6FA0E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23762211-B770-4488-B21E-9C37A46028CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6BD5CEE-DD10-479C-BBF5-1F3B87314B78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D64E9882-45C3-45FD-A8B3-B27860FAEDFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EA640EF-FDC2-4107-AB2D-E57439137B6D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D01B00F-9250-440D-B140-59266C369475}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49B3D476-7D93-4203-8546-3717609373C8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94A19F28-5074-4B6D-B23F-397ACB657E23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51F182F8-EC56-45EC-9445-744CE0086491}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9623C4D7-6D6A-4E91-8A9B-B2D7EFB9D58E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AFB1B0BD-72C1-4D17-8DF2-E58566A426F5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FB78E0BF-DB06-497B-8DC6-631A3AAAEA26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CD62C5F-FDC5-4288-A2FF-4332F7E07FC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52DECA97-6C18-44D2-BA0B-AAEF2FD9191A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15749,7 +15749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106C5717-6D39-495F-9CAC-B17224D15B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5324455-2052-4511-B714-84EE02E1A5D2}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17025,18 +17025,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F889C0C9-184F-4275-8B6E-C086F4C1262D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7853B62-3F6C-4C99-ABA5-27108941AFC1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FC69894F-6F08-48AD-9D5E-011B3F705F2C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{991B6BFB-B193-4D2A-88F9-48EFC9BAB685}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{564B06C3-C230-4147-BA2B-1415A26F0D39}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A16F86B7-F1DF-44F1-811D-DE57AA9EDB30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BBD93E3-59B4-4094-A0DA-9D836318C4BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E33E6D99-8437-4259-A7AB-07C415EFA44C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CF2AF8A-6AED-4298-BE2C-9C97B6560C2B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{64713A34-2CB2-47CF-862E-065C66EB7AA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{286FC7FB-92D1-4211-9361-7F5CB3AADD65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D07F0F10-2AE0-40CB-9504-6C6DCF9B475F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40F58505-885C-4405-BD68-83541553C9D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4405BC3E-17F5-453B-946E-5C230A78B898}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{150C6E5E-CBE4-4D1D-9F5A-0F5E35BA9C30}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{102B5641-8D85-4D09-ACB8-CA96CA4630E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DFA11A0-EAB5-49FC-A904-22A50006AFC5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{232A7E90-A83A-4E42-8BAB-537AF7D54547}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3CFE38A-7FA2-4C7B-9D69-199AF6C335C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{835CA4EF-972B-43F9-8BD2-7BF716F355BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68EB4399-82EF-4A76-B744-9B5C41B7889A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{248DB230-103A-41C4-8939-93035E620225}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{324FC838-7568-4F03-BEE8-9F38EFCA7C65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA2F94E1-54BD-4361-960B-33298E9E59A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
